--- a/documents/Registre_Carbone.xlsx
+++ b/documents/Registre_Carbone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace\mrv-burundi\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D098A8C-0968-4E2F-BFFF-35D7CFE7AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614C904-FF38-41F4-8480-4AD2B4DCB8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Secteur</t>
+    <t>Sous-secteur</t>
   </si>
   <si>
-    <t>Année</t>
+    <t>Gaz</t>
   </si>
   <si>
-    <t>Catégorie IPCC</t>
+    <t>Emissions Année</t>
   </si>
   <si>
-    <t>CO2</t>
+    <t>Emissions Absolues</t>
   </si>
   <si>
-    <t>CH4</t>
+    <t>Niveau Emissions</t>
   </si>
   <si>
-    <t>NO2</t>
+    <t>Total Comule</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>HFC/PFC</t>
-  </si>
-  <si>
-    <t>COVNM</t>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -417,255 +408,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
